--- a/SQL/SQL評量_正規化題目 (1).xlsx
+++ b/SQL/SQL評量_正規化題目 (1).xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Java班\git_upload\SQL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B121783-67E8-4EC1-AA0F-B7990177CCA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D03E241-18FF-453F-9399-705CC758EF29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{36CE15E8-7DE5-4D3C-B6E0-1B1AB355C8A4}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="120">
   <si>
     <r>
       <rPr>
@@ -1861,52 +1861,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>類別代號</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>A001</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>A002</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>私營單位</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>A003</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>A004</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>類別</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Microsoft JhengHei"/>
-        <family val="2"/>
-      </rPr>
-      <t>代號</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>設施資訊</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1919,19 +1877,218 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>村里資訊</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>類別資訊</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>設施類別資訊</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>第一正規化資訊</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARVHAR2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>公寓</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>大樓</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>公共設施</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DISTRICT_SERIAL</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PEOPLE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LAYER</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>POLICE_SERIAL</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DISTRICT</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>OFFICE_TEL</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>POLICE_ADDRESS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>POLICE_TEL</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>POLICE_NAME</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FACILITY_ADDRESS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>OFFICE_ADDRESS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TYPE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>037-724839</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>苗栗市綠苗里中正路</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 766 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>號</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>037-660001</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>信義里信義路</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>53</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>巷</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>號</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>037-616072</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>苗栗縣竹南鎮民族街</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>72</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>號</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>M001</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>M002</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2031,18 +2188,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -2074,13 +2231,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2100,12 +2283,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -2147,28 +2324,79 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2488,7 +2716,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F11"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2901,8 +3129,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC9C8B9C-19ED-4672-8990-546756BEE98D}">
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView topLeftCell="G1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2922,570 +3150,572 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
+      <c r="A1" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14" t="s">
+      <c r="A2" s="12"/>
+      <c r="B2" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14" t="s">
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14" t="s">
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="L3" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:14" s="6" customFormat="1">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="H4" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="I4" s="14" t="s">
+      <c r="I4" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="J4" s="14" t="s">
+      <c r="J4" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="K4" s="14" t="s">
+      <c r="K4" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="L4" s="14" t="s">
+      <c r="L4" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
+      <c r="M4"/>
+      <c r="N4"/>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="G5" s="17">
+      <c r="G5" s="15">
         <v>100</v>
       </c>
-      <c r="H5" s="17">
+      <c r="H5" s="15">
         <v>1</v>
       </c>
-      <c r="I5" s="17" t="s">
+      <c r="I5" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="17" t="s">
+      <c r="J5" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="17" t="s">
+      <c r="K5" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="17" t="s">
+      <c r="L5" s="15" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="G6" s="17">
+      <c r="G6" s="15">
         <v>3142</v>
       </c>
-      <c r="H6" s="17">
+      <c r="H6" s="15">
         <v>1</v>
       </c>
-      <c r="I6" s="17" t="s">
+      <c r="I6" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="J6" s="17" t="s">
+      <c r="J6" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="K6" s="17" t="s">
+      <c r="K6" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="L6" s="17" t="s">
+      <c r="L6" s="15" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="F7" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="G7" s="17">
+      <c r="G7" s="15">
         <v>1072</v>
       </c>
-      <c r="H7" s="17">
+      <c r="H7" s="15">
         <v>1</v>
       </c>
-      <c r="I7" s="17" t="s">
+      <c r="I7" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="J7" s="17" t="s">
+      <c r="J7" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="17" t="s">
+      <c r="K7" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="L7" s="17" t="s">
+      <c r="L7" s="15" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="E8" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="F8" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="G8" s="17">
+      <c r="G8" s="15">
         <v>32</v>
       </c>
-      <c r="H8" s="17">
+      <c r="H8" s="15">
         <v>1</v>
       </c>
-      <c r="I8" s="17" t="s">
+      <c r="I8" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="17" t="s">
+      <c r="J8" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="K8" s="17" t="s">
+      <c r="K8" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="L8" s="17" t="s">
+      <c r="L8" s="15" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="F9" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="G9" s="17">
+      <c r="G9" s="15">
         <v>106</v>
       </c>
-      <c r="H9" s="17">
+      <c r="H9" s="15">
         <v>1</v>
       </c>
-      <c r="I9" s="17" t="s">
+      <c r="I9" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="J9" s="17" t="s">
+      <c r="J9" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="K9" s="17" t="s">
+      <c r="K9" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="L9" s="17" t="s">
+      <c r="L9" s="15" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="F10" s="19" t="s">
+      <c r="F10" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="G10" s="20">
+      <c r="G10" s="18">
         <v>26</v>
       </c>
-      <c r="H10" s="17">
+      <c r="H10" s="15">
         <v>1</v>
       </c>
-      <c r="I10" s="17" t="s">
+      <c r="I10" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="J10" s="17" t="s">
+      <c r="J10" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="K10" s="17" t="s">
+      <c r="K10" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="L10" s="17" t="s">
+      <c r="L10" s="15" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="E11" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="F11" s="21" t="s">
+      <c r="F11" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="G11" s="20">
+      <c r="G11" s="18">
         <v>2038</v>
       </c>
-      <c r="H11" s="17">
+      <c r="H11" s="15">
         <v>2</v>
       </c>
-      <c r="I11" s="17" t="s">
+      <c r="I11" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="J11" s="17" t="s">
+      <c r="J11" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="K11" s="17" t="s">
+      <c r="K11" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="L11" s="17" t="s">
+      <c r="L11" s="15" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="17" t="s">
+      <c r="E12" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="F12" s="19" t="s">
+      <c r="F12" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="G12" s="20">
+      <c r="G12" s="18">
         <v>128</v>
       </c>
-      <c r="H12" s="17">
+      <c r="H12" s="15">
         <v>2</v>
       </c>
-      <c r="I12" s="17" t="s">
+      <c r="I12" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="J12" s="17" t="s">
+      <c r="J12" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="K12" s="17" t="s">
+      <c r="K12" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="L12" s="17" t="s">
+      <c r="L12" s="15" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:14">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="E13" s="17" t="s">
+      <c r="E13" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="F13" s="16" t="s">
+      <c r="F13" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="G13" s="17">
+      <c r="G13" s="15">
         <v>353</v>
       </c>
-      <c r="H13" s="17">
+      <c r="H13" s="15">
         <v>1</v>
       </c>
-      <c r="I13" s="17" t="s">
+      <c r="I13" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="J13" s="17" t="s">
+      <c r="J13" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="K13" s="17" t="s">
+      <c r="K13" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="L13" s="17" t="s">
+      <c r="L13" s="15" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="E14" s="17" t="s">
+      <c r="E14" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="F14" s="16" t="s">
+      <c r="F14" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="G14" s="17">
+      <c r="G14" s="15">
         <v>501</v>
       </c>
-      <c r="H14" s="17">
+      <c r="H14" s="15">
         <v>1</v>
       </c>
-      <c r="I14" s="17" t="s">
+      <c r="I14" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="J14" s="17" t="s">
+      <c r="J14" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="K14" s="17" t="s">
+      <c r="K14" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="L14" s="17" t="s">
+      <c r="L14" s="15" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:14">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17" t="s">
+      <c r="D15" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="F15" s="16" t="s">
+      <c r="F15" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="G15" s="17">
+      <c r="G15" s="15">
         <v>194</v>
       </c>
-      <c r="H15" s="17">
+      <c r="H15" s="15">
         <v>1</v>
       </c>
-      <c r="I15" s="17" t="s">
+      <c r="I15" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="J15" s="17" t="s">
+      <c r="J15" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="K15" s="17" t="s">
+      <c r="K15" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="L15" s="17" t="s">
+      <c r="L15" s="15" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:14">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="E16" s="17" t="s">
+      <c r="E16" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="F16" s="16" t="s">
+      <c r="F16" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="G16" s="17">
+      <c r="G16" s="15">
         <v>78</v>
       </c>
-      <c r="H16" s="17">
+      <c r="H16" s="15">
         <v>1</v>
       </c>
-      <c r="I16" s="17" t="s">
+      <c r="I16" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="J16" s="17" t="s">
+      <c r="J16" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="K16" s="17" t="s">
+      <c r="K16" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="L16" s="17" t="s">
+      <c r="L16" s="15" t="s">
         <v>56</v>
       </c>
     </row>
@@ -3498,15 +3728,16 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7676EE6F-5318-4912-8E29-20360EBC9046}">
-  <dimension ref="A2:N38"/>
+  <dimension ref="A2:P40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3515,763 +3746,763 @@
     <col min="2" max="2" width="13.375" customWidth="1"/>
     <col min="3" max="3" width="32.25" customWidth="1"/>
     <col min="4" max="4" width="15.375" customWidth="1"/>
-    <col min="5" max="5" width="13.125" customWidth="1"/>
-    <col min="7" max="7" width="13.375" customWidth="1"/>
-    <col min="8" max="8" width="28.75" customWidth="1"/>
-    <col min="9" max="9" width="20.375" customWidth="1"/>
-    <col min="10" max="10" width="7.625" customWidth="1"/>
-    <col min="11" max="11" width="14.375" customWidth="1"/>
-    <col min="12" max="12" width="14" customWidth="1"/>
-    <col min="13" max="13" width="23.875" customWidth="1"/>
-    <col min="14" max="14" width="12.5" customWidth="1"/>
+    <col min="5" max="7" width="13.125" customWidth="1"/>
+    <col min="8" max="9" width="13.375" customWidth="1"/>
+    <col min="10" max="10" width="28.75" customWidth="1"/>
+    <col min="11" max="11" width="20.375" customWidth="1"/>
+    <col min="12" max="12" width="7.625" customWidth="1"/>
+    <col min="13" max="13" width="14.375" customWidth="1"/>
+    <col min="14" max="14" width="14" customWidth="1"/>
+    <col min="15" max="15" width="23.875" customWidth="1"/>
+    <col min="16" max="16" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14">
-      <c r="B2" s="26" t="s">
+    <row r="2" spans="1:16">
+      <c r="A2" s="26"/>
+      <c r="B2" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="M2" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="12"/>
+      <c r="B3" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="G3" s="24"/>
+      <c r="H3" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="M3" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="N4" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="O4" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="P4" s="12" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="K5" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="G2" s="27" t="s">
-        <v>96</v>
-      </c>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="K2" s="27" t="s">
+      <c r="M5" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="N5" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="O5" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="P5" s="12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="B3" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="G3" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="K3" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="7"/>
-      <c r="B4" s="11" t="s">
+      <c r="B6" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" s="15">
+        <v>100</v>
+      </c>
+      <c r="E6" s="15">
         <v>1</v>
       </c>
-      <c r="C4" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="11" t="s">
+      <c r="F6" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="M6" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="N6" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="O6" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="P6" s="15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" s="15">
+        <v>3142</v>
+      </c>
+      <c r="E7" s="15">
         <v>1</v>
       </c>
-      <c r="H4" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="K4" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="L4" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="M4" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="N4" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="8"/>
-      <c r="B5" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="H5" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="I5" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="K5" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="L5" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="M5" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="N5" s="14" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="2"/>
-      <c r="B6" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="D6" s="17">
-        <v>100</v>
-      </c>
-      <c r="E6" s="17">
+      <c r="F7" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="M7" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="N7" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="O7" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="P7" s="15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" s="15">
+        <v>1072</v>
+      </c>
+      <c r="E8" s="15">
         <v>1</v>
       </c>
-      <c r="G6" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="K6" s="17" t="s">
+      <c r="F8" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="L6" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="M6" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="N6" s="17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="2"/>
-      <c r="B7" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="D7" s="17">
-        <v>3142</v>
-      </c>
-      <c r="E7" s="17">
+      <c r="G8" s="4"/>
+      <c r="H8" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="K8" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="M8" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="N8" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="O8" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="P8" s="15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" s="15">
+        <v>32</v>
+      </c>
+      <c r="E9" s="15">
         <v>1</v>
       </c>
-      <c r="G7" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="I7" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="K7" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="L7" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="M7" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="N7" s="17" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="2"/>
-      <c r="B8" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="D8" s="17">
-        <v>1072</v>
-      </c>
-      <c r="E8" s="17">
-        <v>1</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="H8" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="I8" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="K8" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="L8" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="M8" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="N8" s="17" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9" s="2"/>
-      <c r="B9" s="15" t="s">
+      <c r="F9" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="D9" s="17">
-        <v>32</v>
-      </c>
-      <c r="E9" s="17">
-        <v>1</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="H9" s="17" t="s">
+      <c r="I9" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="J9" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="I9" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
+      <c r="K9" s="15" t="s">
+        <v>112</v>
+      </c>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="A10" s="2"/>
-      <c r="B10" s="15" t="s">
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="B10" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D10" s="15">
         <v>106</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E10" s="15">
         <v>1</v>
       </c>
-      <c r="G10" s="15" t="s">
+      <c r="F10" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="H10" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="I10" s="17" t="s">
+      <c r="I10" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="J10" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="K10" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
-    </row>
-    <row r="11" spans="1:14" ht="24" customHeight="1">
-      <c r="A11" s="2"/>
-      <c r="B11" s="15" t="s">
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+    </row>
+    <row r="11" spans="1:16" ht="24" customHeight="1">
+      <c r="A11" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="B11" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="D11" s="20">
+      <c r="D11" s="18">
         <v>26</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E11" s="15">
         <v>1</v>
       </c>
-      <c r="G11" s="15" t="s">
+      <c r="F11" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="4"/>
+      <c r="H11" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="H11" s="17" t="s">
+      <c r="I11" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="J11" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="I11" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
+      <c r="K11" s="15" t="s">
+        <v>114</v>
+      </c>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
-    </row>
-    <row r="12" spans="1:14" ht="22.5" customHeight="1">
-      <c r="A12" s="2"/>
-      <c r="B12" s="15" t="s">
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+    </row>
+    <row r="12" spans="1:16" ht="22.5" customHeight="1">
+      <c r="A12" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="B12" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D12" s="18">
         <v>2038</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E12" s="15">
         <v>2</v>
       </c>
-      <c r="G12" s="15" t="s">
+      <c r="F12" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" s="4"/>
+      <c r="H12" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="H12" s="17" t="s">
+      <c r="I12" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="J12" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="I12" s="17" t="s">
+      <c r="K12" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
-    </row>
-    <row r="13" spans="1:14" ht="21.75" customHeight="1">
-      <c r="A13" s="2"/>
-      <c r="B13" s="15" t="s">
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+    </row>
+    <row r="13" spans="1:16" ht="21.75" customHeight="1">
+      <c r="A13" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="D13" s="20">
+      <c r="D13" s="18">
         <v>128</v>
       </c>
-      <c r="E13" s="17">
+      <c r="E13" s="15">
         <v>2</v>
       </c>
-      <c r="G13" s="15" t="s">
+      <c r="F13" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="G13" s="4"/>
+      <c r="H13" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="H13" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="I13" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
+      <c r="I13" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="J13" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="K13" s="15" t="s">
+        <v>116</v>
+      </c>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="A14" s="2"/>
-      <c r="B14" s="15" t="s">
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="D14" s="17">
+      <c r="D14" s="15">
         <v>353</v>
       </c>
-      <c r="E14" s="17">
+      <c r="E14" s="15">
         <v>1</v>
       </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
+      <c r="F14" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="G14" s="4"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="4"/>
       <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="A15" s="2"/>
-      <c r="B15" s="15" t="s">
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="B15" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="D15" s="17">
+      <c r="D15" s="15">
         <v>501</v>
       </c>
-      <c r="E15" s="17">
+      <c r="E15" s="15">
         <v>1</v>
       </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
+      <c r="F15" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="G15" s="4"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="4"/>
       <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="A16" s="2"/>
-      <c r="B16" s="15" t="s">
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="B16" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="D16" s="17">
+      <c r="D16" s="15">
         <v>194</v>
       </c>
-      <c r="E16" s="17">
+      <c r="E16" s="15">
         <v>1</v>
       </c>
-      <c r="G16" s="2"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
+      <c r="F16" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="G16" s="4"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="4"/>
       <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
-    </row>
-    <row r="17" spans="1:14">
-      <c r="A17" s="2"/>
-      <c r="B17" s="15" t="s">
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="B17" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="D17" s="17">
+      <c r="D17" s="15">
         <v>78</v>
       </c>
-      <c r="E17" s="17">
+      <c r="E17" s="15">
         <v>1</v>
       </c>
-      <c r="G17" s="2"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
+      <c r="F17" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="G17" s="4"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="4"/>
       <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
-    </row>
-    <row r="23" spans="1:14">
-      <c r="A23" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="B23" s="27"/>
-      <c r="D23" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="E23" s="27"/>
-      <c r="G23" s="27" t="s">
-        <v>100</v>
-      </c>
-      <c r="H23" s="27"/>
-      <c r="I23" s="27"/>
-    </row>
-    <row r="24" spans="1:14">
-      <c r="A24" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="B24" s="14"/>
-      <c r="D24" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="E24" s="14"/>
-      <c r="G24" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
-      <c r="A25" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D25" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="G25" s="25" t="s">
-        <v>94</v>
-      </c>
-      <c r="H25" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="I25" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14">
-      <c r="A26" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="B26" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="D26" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="E26" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="G26" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="H26" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="I26" s="14" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14">
-      <c r="A27" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B27" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="E27" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="H27" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="I27" s="17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14">
-      <c r="A28" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B28" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="D28" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="E28" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="G28" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="H28" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="I28" s="17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14">
-      <c r="A29" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B29" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="D29" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="E29" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="G29" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="H29" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="I29" s="17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14">
-      <c r="A30" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="B30" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="D30" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="E30" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="G30" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="H30" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="I30" s="17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14">
-      <c r="A31" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="B31" s="17" t="s">
-        <v>39</v>
-      </c>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23" s="44"/>
+      <c r="B23" s="44"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="44"/>
+      <c r="J23" s="44"/>
+      <c r="K23" s="44"/>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25" s="40"/>
+      <c r="B25" s="41"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="2"/>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26" s="12"/>
+      <c r="B26" s="12"/>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27" s="35"/>
+      <c r="B27" s="36"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="4"/>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28" s="12"/>
+      <c r="B28" s="12"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="4"/>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29" s="13"/>
+      <c r="B29" s="33"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="4"/>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="A30" s="13"/>
+      <c r="B30" s="33"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="29"/>
+      <c r="K30" s="4"/>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="A31" s="13"/>
+      <c r="B31" s="33"/>
       <c r="E31" s="2"/>
-      <c r="G31" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="H31" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="I31" s="17" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14">
-      <c r="A32" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="B32" s="17" t="s">
-        <v>49</v>
-      </c>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="30"/>
+      <c r="K31" s="4"/>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32" s="13"/>
+      <c r="B32" s="34"/>
       <c r="E32" s="2"/>
-      <c r="G32" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="H32" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="I32" s="17" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="A33" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="B33" s="17" t="s">
-        <v>59</v>
-      </c>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="31"/>
+      <c r="K32" s="4"/>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="2"/>
+      <c r="B33" s="4"/>
       <c r="E33" s="2"/>
-      <c r="G33" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="H33" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="I33" s="17" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
-      <c r="A34" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="B34" s="17" t="s">
-        <v>64</v>
-      </c>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="32"/>
+      <c r="K33" s="4"/>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="2"/>
+      <c r="B34" s="4"/>
       <c r="E34" s="2"/>
-      <c r="G34" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="H34" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="I34" s="17" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="31"/>
+      <c r="K34" s="4"/>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="2"/>
       <c r="E35" s="2"/>
-      <c r="G35" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="H35" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="I35" s="17" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="29"/>
+      <c r="K35" s="4"/>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="2"/>
       <c r="E36" s="2"/>
-      <c r="G36" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="H36" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="I36" s="17" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="29"/>
+      <c r="K36" s="4"/>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="2"/>
       <c r="E37" s="2"/>
-      <c r="G37" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="H37" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="I37" s="17" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="29"/>
+      <c r="K37" s="4"/>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="2"/>
       <c r="E38" s="2"/>
-      <c r="G38" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="H38" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="I38" s="17" t="s">
-        <v>53</v>
-      </c>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="29"/>
+      <c r="K38" s="4"/>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="2"/>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="A25:B25"/>
     <mergeCell ref="B2:E2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="M2:P2"/>
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="D23:E23"/>
-    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="H23:K23"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>